--- a/src/attributions/attributions_saliency_traj_302.xlsx
+++ b/src/attributions/attributions_saliency_traj_302.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003961039241403341</v>
+        <v>0.1275099962949753</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006758975330740213</v>
+        <v>0.2907246053218842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04985736310482025</v>
+        <v>1.120352506637573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01337624900043011</v>
+        <v>0.02225790917873383</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06033850461244583</v>
+        <v>0.411358654499054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00554264709353447</v>
+        <v>0.2138659209012985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00551121961325407</v>
+        <v>0.4823006987571716</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01765149831771851</v>
+        <v>0.06739357113838196</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03073162585496902</v>
+        <v>0.1376900672912598</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001190772978588939</v>
+        <v>0.2021587491035461</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008516302332282066</v>
+        <v>0.3801884949207306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05081866681575775</v>
+        <v>1.096622586250305</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002282928675413</v>
+        <v>0.2813665568828583</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04293239861726761</v>
+        <v>0.2669095098972321</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003131919074803591</v>
+        <v>0.02522666752338409</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002013084478676319</v>
+        <v>0.5913079977035522</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02526678703725338</v>
+        <v>0.08642929047346115</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03388196974992752</v>
+        <v>0.3025875687599182</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002071621362119913</v>
+        <v>0.03176233917474747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02098340913653374</v>
+        <v>0.2261158227920532</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002302896929904819</v>
+        <v>0.3121541738510132</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008086506277322769</v>
+        <v>0.1771288216114044</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01085533387959003</v>
+        <v>0.1252261847257614</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003408098127692938</v>
+        <v>0.2899809181690216</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003701559733599424</v>
+        <v>0.08097237348556519</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00774744525551796</v>
+        <v>0.01932928897440434</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.135638199746609e-05</v>
+        <v>0.1792004406452179</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0008640107698738575</v>
+        <v>0.123588889837265</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.003227397799491882</v>
+        <v>0.03718731552362442</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0006115364376455545</v>
+        <v>0.1589305996894836</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01055307872593403</v>
+        <v>0.09841562807559967</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01027648523449898</v>
+        <v>0.2229645550251007</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.003181566251441836</v>
+        <v>0.01729998178780079</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002665875945240259</v>
+        <v>0.1567918956279755</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01296333689242601</v>
+        <v>0.1511141657829285</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01727182418107986</v>
+        <v>0.1863121688365936</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.006625463720411062</v>
+        <v>0.0688093900680542</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.01459518447518349</v>
+        <v>0.214530885219574</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.005444956477731466</v>
+        <v>0.1406868994235992</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.003020453499630094</v>
+        <v>0.03808311372995377</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.005871890112757683</v>
+        <v>0.3108270466327667</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.001694232225418091</v>
+        <v>0.1126691699028015</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0009795575169846416</v>
+        <v>0.2210482060909271</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.004353248048573732</v>
+        <v>0.08875632286071777</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.000474788888823241</v>
+        <v>0.05440183728933334</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0002990564098581672</v>
+        <v>0.1228953674435616</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.007180696353316307</v>
+        <v>0.118701696395874</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.03056861273944378</v>
+        <v>0.3328729867935181</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.00807015597820282</v>
+        <v>0.04838508367538452</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02120775915682316</v>
+        <v>0.167746290564537</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02193343266844749</v>
+        <v>0.07486063987016678</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.005776097998023033</v>
+        <v>0.4695133566856384</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01597703620791435</v>
+        <v>0.1270675510168076</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01339668221771717</v>
+        <v>0.3186812698841095</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.001886954298242927</v>
+        <v>0.02667922154068947</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.004481470212340355</v>
+        <v>0.5500052571296692</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01572106778621674</v>
+        <v>0.4954731166362762</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001737349666655064</v>
+        <v>0.2748160362243652</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01394658349454403</v>
+        <v>0.04686304926872253</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0006001084111630917</v>
+        <v>0.3818437159061432</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.008884632028639317</v>
+        <v>0.07580415904521942</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001128006028011441</v>
+        <v>0.2279016077518463</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.002228985773399472</v>
+        <v>0.4411207735538483</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001570172258652747</v>
+        <v>0.1482608318328857</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0002382162492722273</v>
+        <v>0.3366959095001221</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.01261783484369516</v>
+        <v>0.2237430661916733</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002628558315336704</v>
+        <v>0.2256623059511185</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.004354842007160187</v>
+        <v>0.0273804534226656</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.001904496690258384</v>
+        <v>0.1851815432310104</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.003859312273561954</v>
+        <v>0.2350282818078995</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01387610379606485</v>
+        <v>0.05110578984022141</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.007883929647505283</v>
+        <v>0.1348258852958679</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.01081862114369869</v>
+        <v>0.03173194825649261</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0007500362116843462</v>
+        <v>0.1665272414684296</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01025587227195501</v>
+        <v>0.09498650580644608</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.001271738554351032</v>
+        <v>0.2414930909872055</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.03211064636707306</v>
+        <v>0.07159003615379333</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.008284563198685646</v>
+        <v>0.2913358211517334</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.006631034892052412</v>
+        <v>0.1861197054386139</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.004107031505554914</v>
+        <v>0.1036711931228638</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01756886765360832</v>
+        <v>0.3120754957199097</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.002427062951028347</v>
+        <v>0.03618726134300232</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.007989040575921535</v>
+        <v>0.06188903003931046</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.01042789407074451</v>
+        <v>0.1780202090740204</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.00441746786236763</v>
+        <v>0.08966707438230515</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01132420357316732</v>
+        <v>0.01792521961033344</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.002794150495901704</v>
+        <v>0.04539171233773232</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.001368170604109764</v>
+        <v>0.02015399932861328</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001824064296670258</v>
+        <v>0.03572390973567963</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.004559178836643696</v>
+        <v>0.009072897024452686</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.002927108202129602</v>
+        <v>0.0911189392209053</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.02683986350893974</v>
+        <v>0.09240122139453888</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.006777134723961353</v>
+        <v>0.1293380260467529</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.003628927282989025</v>
+        <v>0.1386013925075531</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.008079854771494865</v>
+        <v>0.4996147751808167</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001800928730517626</v>
+        <v>0.09808344393968582</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.00221048342064023</v>
+        <v>0.06920135021209717</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.006740173790603876</v>
+        <v>0.1730359941720963</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.01352610345929861</v>
+        <v>0.05454296246170998</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.002473141066730022</v>
+        <v>0.02162038721144199</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.006200646515935659</v>
+        <v>0.08640578389167786</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.01062213256955147</v>
+        <v>0.2058627009391785</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.002880407497286797</v>
+        <v>0.0671471506357193</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01547390036284924</v>
+        <v>0.04155141487717628</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001892772736027837</v>
+        <v>0.04660400375723839</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.002783585572615266</v>
+        <v>0.05890688300132751</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.002759591210633516</v>
+        <v>0.04206645488739014</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.004931536037474871</v>
+        <v>0.04037249833345413</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.007251167669892311</v>
+        <v>0.2863432466983795</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.01356334052979946</v>
+        <v>0.2010102272033691</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01622801274061203</v>
+        <v>0.7464808225631714</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.01821292191743851</v>
+        <v>0.4448232054710388</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.004067901056259871</v>
+        <v>0.004152677953243256</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.003850632579997182</v>
+        <v>0.2443468123674393</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01079632993787527</v>
+        <v>0.06340733170509338</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.005556854419410229</v>
+        <v>0.07357786595821381</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01368931028991938</v>
+        <v>0.2156695127487183</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0004952076124027371</v>
+        <v>0.04707138240337372</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01198734436184168</v>
+        <v>0.1179615408182144</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.005788053385913372</v>
+        <v>0.03943063318729401</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.003696906147524714</v>
+        <v>0.01695594191551208</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.006450851913541555</v>
+        <v>0.2648507356643677</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.009436697699129581</v>
+        <v>0.02506295591592789</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0003698446089401841</v>
+        <v>0.224205955862999</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.004792957566678524</v>
+        <v>0.2154391407966614</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0048370067961514</v>
+        <v>0.1660135984420776</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001439113519154489</v>
+        <v>0.09513924270868301</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001776675344444811</v>
+        <v>0.09387359023094177</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0008870189776644111</v>
+        <v>0.2048076540231705</v>
       </c>
       <c r="DZ3" t="n">
-        <v>6.986281368881464e-05</v>
+        <v>0.03593111038208008</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.002188485581427813</v>
+        <v>0.1190040558576584</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.008750626817345619</v>
+        <v>0.06689904630184174</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.002214101841673255</v>
+        <v>0.02728764712810516</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0066248569637537</v>
+        <v>0.2322729676961899</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.005706292577087879</v>
+        <v>0.05626519396901131</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.005631729960441589</v>
+        <v>0.03879791498184204</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.003783483523875475</v>
+        <v>0.04712831228971481</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.008842644281685352</v>
+        <v>0.2966936826705933</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.005483550950884819</v>
+        <v>0.2108888924121857</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.007859333418309689</v>
+        <v>0.1092288717627525</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.01092869881540537</v>
+        <v>0.2781693637371063</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.001375850522890687</v>
+        <v>0.08425827324390411</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.007047544233500957</v>
+        <v>0.0330217182636261</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.003237419296056032</v>
+        <v>0.06988005340099335</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.003432529047131538</v>
+        <v>0.02085930481553078</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00310427276417613</v>
+        <v>0.1105480492115021</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0004447404062375426</v>
+        <v>0.1313370615243912</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.006917155347764492</v>
+        <v>0.03989578038454056</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.009080157615244389</v>
+        <v>0.01007547322660685</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00541236437857151</v>
+        <v>0.004111802205443382</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.008414070121943951</v>
+        <v>0.2590011358261108</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0001201818231493235</v>
+        <v>0.111118383705616</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.008442331105470657</v>
+        <v>0.2113082259893417</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.00185260537546128</v>
+        <v>0.05296022072434425</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.005816689692437649</v>
+        <v>0.003745406866073608</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01096794009208679</v>
+        <v>0.2366422116756439</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.00320028024725616</v>
+        <v>0.09018193185329437</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01132748648524284</v>
+        <v>0.0337238572537899</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0004869838012382388</v>
+        <v>0.08932929486036301</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.002532304730266333</v>
+        <v>0.08399002254009247</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.00364188733510673</v>
+        <v>0.02607549540698528</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.006555930711328983</v>
+        <v>0.0652485266327858</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.001666016178205609</v>
+        <v>0.2415493875741959</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0004450450651347637</v>
+        <v>0.03769684210419655</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.007402578368782997</v>
+        <v>0.07757911086082458</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.007393063046038151</v>
+        <v>0.03723198547959328</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.01116853579878807</v>
+        <v>0.07181370258331299</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.001559405820444226</v>
+        <v>0.06981407850980759</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0009186441311612725</v>
+        <v>0.03530574962496758</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.004901528358459473</v>
+        <v>0.06214076653122902</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.01758220791816711</v>
+        <v>0.02189107425510883</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.002533577848225832</v>
+        <v>0.1742090582847595</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01849997602403164</v>
+        <v>0.02226416021585464</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.005804849322885275</v>
+        <v>0.08664111793041229</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.009130396880209446</v>
+        <v>0.0006770268082618713</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002837229985743761</v>
+        <v>0.01899793930351734</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.004699212964624166</v>
+        <v>0.3484292328357697</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.003275613067671657</v>
+        <v>0.2889387607574463</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001742920838296413</v>
+        <v>0.3074528276920319</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001992331817746162</v>
+        <v>0.07208671420812607</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0008054818026721478</v>
+        <v>0.1640705317258835</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.002174753462895751</v>
+        <v>0.1723926812410355</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.002490912098437548</v>
+        <v>0.2798144817352295</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.007297088392078876</v>
+        <v>0.2856511175632477</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.005357919260859489</v>
+        <v>0.1393889933824539</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.01447603385895491</v>
+        <v>0.131408616900444</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001451841089874506</v>
+        <v>0.1338288933038712</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.001394618302583694</v>
+        <v>0.05502945184707642</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002504139672964811</v>
+        <v>0.08116364479064941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001466419489588588</v>
+        <v>0.000734275090508163</v>
       </c>
       <c r="B4" t="n">
-        <v>7.713581726420671e-05</v>
+        <v>0.0060981260612607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002519983681850135</v>
+        <v>0.0003294008783996105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002117833064403385</v>
+        <v>0.003615273861214519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001999168889597058</v>
+        <v>0.001809737179428339</v>
       </c>
       <c r="F4" t="n">
-        <v>7.754361286060885e-05</v>
+        <v>0.001598241971805692</v>
       </c>
       <c r="G4" t="n">
-        <v>5.067267193226144e-05</v>
+        <v>1.739902654662728e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001383547496516258</v>
+        <v>0.0002608297509141266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002858238876797259</v>
+        <v>0.0005637097638100386</v>
       </c>
       <c r="J4" t="n">
-        <v>7.590062159579247e-05</v>
+        <v>0.0009465407929383218</v>
       </c>
       <c r="K4" t="n">
-        <v>1.095826155506074e-05</v>
+        <v>0.004009354393929243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003070454986300319</v>
+        <v>0.0005067890742793679</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001572573964949697</v>
+        <v>0.002971237059682608</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000181456416612491</v>
+        <v>0.002803556621074677</v>
       </c>
       <c r="O4" t="n">
-        <v>4.118348442716524e-06</v>
+        <v>0.002163685625419021</v>
       </c>
       <c r="P4" t="n">
-        <v>7.797928992658854e-05</v>
+        <v>0.000536006991751492</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0002307633112650365</v>
+        <v>0.0008780098287388682</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0003479404549580067</v>
+        <v>0.0004193378263153136</v>
       </c>
       <c r="S4" t="n">
-        <v>2.139684511348605e-06</v>
+        <v>0.0001207015884574503</v>
       </c>
       <c r="T4" t="n">
-        <v>9.666583355283365e-05</v>
+        <v>0.0009157985914498568</v>
       </c>
       <c r="U4" t="n">
-        <v>5.598827556241304e-05</v>
+        <v>0.0001732223900035024</v>
       </c>
       <c r="V4" t="n">
-        <v>8.957375393947586e-05</v>
+        <v>0.0007235519005917013</v>
       </c>
       <c r="W4" t="n">
-        <v>9.997693268815055e-05</v>
+        <v>8.31842771731317e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.335684621357359e-05</v>
+        <v>0.0007687276229262352</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.244187584845349e-05</v>
+        <v>0.0009807548485696316</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.657127722864971e-05</v>
+        <v>0.0001941186055773869</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.523728082654998e-05</v>
+        <v>0.0003349266189616174</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.012109714793041e-05</v>
+        <v>0.0003846553445328027</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.257183950860053e-05</v>
+        <v>0.0007297912379726768</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.710474629770033e-05</v>
+        <v>5.356792826205492e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.990636832895689e-05</v>
+        <v>0.0001616525842109695</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.870726065244526e-05</v>
+        <v>0.0008440242381766438</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.269295358331874e-05</v>
+        <v>1.16057344712317e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.008250107290223e-05</v>
+        <v>6.838497938588262e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.907624629093334e-05</v>
+        <v>0.0001189328322652727</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0001350951351923868</v>
+        <v>0.0003575562732294202</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.818137207010295e-05</v>
+        <v>0.0002509646292310208</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0001283733290620148</v>
+        <v>0.0006444248137995601</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.014786827610806e-05</v>
+        <v>2.054114520433359e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.003686601412483e-05</v>
+        <v>0.0002746900136116892</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.623666584142484e-05</v>
+        <v>0.0003853206872008741</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0001570217864355072</v>
+        <v>0.0008106486056931317</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.144563611887861e-06</v>
+        <v>0.0002139868156518787</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.665665331529453e-05</v>
+        <v>0.0001262456498807296</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.162878551345784e-06</v>
+        <v>0.0004099675861652941</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001074294996215031</v>
+        <v>0.00061027955962345</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0001867747196229175</v>
+        <v>0.004390847869217396</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0002611687523312867</v>
+        <v>2.717754250625148e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.613131260266528e-05</v>
+        <v>0.001301145413890481</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.026886795647442e-05</v>
+        <v>0.0004586798895616084</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0002374227915424854</v>
+        <v>0.0001658593391766772</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.53175494435709e-06</v>
+        <v>0.0006165068480186164</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.823561413213611e-05</v>
+        <v>0.0004570697783492506</v>
       </c>
       <c r="BB4" t="n">
-        <v>9.394854714628309e-05</v>
+        <v>0.0003572069981601089</v>
       </c>
       <c r="BC4" t="n">
-        <v>6.824306183261797e-06</v>
+        <v>0.0004733743844553828</v>
       </c>
       <c r="BD4" t="n">
-        <v>6.467864295700565e-05</v>
+        <v>0.0008347969851456583</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.613087730831467e-05</v>
+        <v>0.0006439274875447154</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.124772385694087e-05</v>
+        <v>0.0003247744753025472</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.021644468186423e-05</v>
+        <v>0.002096656244248152</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0001010525957099162</v>
+        <v>0.001277129864320159</v>
       </c>
       <c r="BI4" t="n">
-        <v>4.375165372039191e-05</v>
+        <v>0.000564660644158721</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.506789678591304e-05</v>
+        <v>0.0005949686164967716</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.215930650592782e-05</v>
+        <v>0.0001599416136741638</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.198747304442804e-05</v>
+        <v>0.0007642609416507185</v>
       </c>
       <c r="BM4" t="n">
-        <v>7.849768735468388e-06</v>
+        <v>0.0007169045857153833</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0001091960002668202</v>
+        <v>0.0001342146715614945</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.738125087693334e-05</v>
+        <v>0.0005376500776037574</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.091844700975344e-05</v>
+        <v>0.0004413769056554884</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.144745955476537e-05</v>
+        <v>0.0003073950065299869</v>
       </c>
       <c r="BR4" t="n">
-        <v>8.268609963124618e-05</v>
+        <v>5.104788579046726e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0001142959081334993</v>
+        <v>0.0001588537561474368</v>
       </c>
       <c r="BT4" t="n">
-        <v>7.253027433762327e-05</v>
+        <v>0.0004033851728308946</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.762260919553228e-05</v>
+        <v>0.0004922267398796976</v>
       </c>
       <c r="BV4" t="n">
-        <v>6.693018804071471e-05</v>
+        <v>0.002229236532002687</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.213377047155518e-05</v>
+        <v>0.0001444993977202103</v>
       </c>
       <c r="BX4" t="n">
-        <v>4.436486779013649e-05</v>
+        <v>0.0006451751687563956</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.620672214310616e-05</v>
+        <v>0.0003927495563402772</v>
       </c>
       <c r="BZ4" t="n">
-        <v>6.275509076658636e-05</v>
+        <v>0.001274876412935555</v>
       </c>
       <c r="CA4" t="n">
-        <v>5.377826164476573e-05</v>
+        <v>0.0001571081229485571</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.41969199932646e-06</v>
+        <v>0.0004048406262882054</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.000119836229714565</v>
+        <v>0.0004067812697030604</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.682574995560572e-05</v>
+        <v>0.0003974904248025268</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.679227979271673e-05</v>
+        <v>0.000992695102468133</v>
       </c>
       <c r="CF4" t="n">
-        <v>5.720262197428383e-05</v>
+        <v>0.0002646553621161729</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.198454214725643e-05</v>
+        <v>0.0003213834424968809</v>
       </c>
       <c r="CH4" t="n">
-        <v>4.914571036351845e-05</v>
+        <v>0.0001058492052834481</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.088274595735129e-05</v>
+        <v>0.0004233317449688911</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.593455974420067e-06</v>
+        <v>0.0002169338258681819</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.354444536147639e-05</v>
+        <v>7.666624151170254e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.564724102034234e-05</v>
+        <v>0.0002613801043480635</v>
       </c>
       <c r="CM4" t="n">
-        <v>3.16432342515327e-05</v>
+        <v>0.0004363793996162713</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0001520637015346438</v>
+        <v>0.000193870990187861</v>
       </c>
       <c r="CO4" t="n">
-        <v>5.287525709718466e-05</v>
+        <v>0.0004598875239025801</v>
       </c>
       <c r="CP4" t="n">
-        <v>6.692570423183497e-06</v>
+        <v>0.001036974717862904</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3.280556848039851e-05</v>
+        <v>0.000873336277436465</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.325781497347634e-05</v>
+        <v>0.0006388828041963279</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.843738730007317e-05</v>
+        <v>0.0005110881756991148</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.932524148491211e-05</v>
+        <v>0.001443127170205116</v>
       </c>
       <c r="CU4" t="n">
-        <v>9.835111268330365e-05</v>
+        <v>1.664929732214659e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>2.318529368494637e-05</v>
+        <v>0.0003764014400076121</v>
       </c>
       <c r="CW4" t="n">
-        <v>6.902614404680207e-05</v>
+        <v>0.0007874935399740934</v>
       </c>
       <c r="CX4" t="n">
-        <v>5.130271529196762e-05</v>
+        <v>0.0002774221356958151</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.049647057196125e-05</v>
+        <v>0.0006760865217074752</v>
       </c>
       <c r="CZ4" t="n">
-        <v>7.523651584051549e-05</v>
+        <v>0.0001237239048350602</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.477074303897098e-05</v>
+        <v>0.0005331301945261657</v>
       </c>
       <c r="DB4" t="n">
-        <v>3.916537025361322e-06</v>
+        <v>0.0001602846896275878</v>
       </c>
       <c r="DC4" t="n">
-        <v>5.589297506958246e-05</v>
+        <v>6.792964995838702e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>3.531974289217032e-05</v>
+        <v>0.000170137092936784</v>
       </c>
       <c r="DE4" t="n">
-        <v>6.720883538946509e-05</v>
+        <v>0.0002662473125383258</v>
       </c>
       <c r="DF4" t="n">
-        <v>7.130271114874631e-05</v>
+        <v>0.001149205258116126</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0001411495904903859</v>
+        <v>4.572408579406328e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>8.618462015874684e-05</v>
+        <v>0.001302980934269726</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.675877865636721e-05</v>
+        <v>0.0001222591381520033</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0001478083140682429</v>
+        <v>0.0003982242778874934</v>
       </c>
       <c r="DK4" t="n">
-        <v>7.995748455869034e-05</v>
+        <v>0.0005008739535696805</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.94614856102271e-05</v>
+        <v>0.0009506340138614178</v>
       </c>
       <c r="DM4" t="n">
-        <v>4.414653813000768e-05</v>
+        <v>0.0002604819310363382</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.257952655781992e-05</v>
+        <v>0.0008785179816186428</v>
       </c>
       <c r="DO4" t="n">
-        <v>5.484678695211187e-05</v>
+        <v>0.000444976263679564</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001020363561110571</v>
+        <v>0.0003004763275384903</v>
       </c>
       <c r="DQ4" t="n">
-        <v>4.626372538041323e-05</v>
+        <v>0.0002553146332502365</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.118954060075339e-05</v>
+        <v>5.134214734425768e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>7.553838077001274e-05</v>
+        <v>0.0006151185370981693</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.492646424594568e-05</v>
+        <v>0.0001306442718487233</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.067772533744574e-05</v>
+        <v>3.111733531113714e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>5.176291597308591e-05</v>
+        <v>0.0003165396919939667</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.378174783894792e-05</v>
+        <v>0.0003741017717402428</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.310807758476585e-06</v>
+        <v>8.043169509619474e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.355550870765001e-05</v>
+        <v>0.0007980871014297009</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.323138662381098e-05</v>
+        <v>0.0003971831465605646</v>
       </c>
       <c r="EA4" t="n">
-        <v>6.063679029466584e-05</v>
+        <v>0.0006149110267870128</v>
       </c>
       <c r="EB4" t="n">
-        <v>5.918224815104622e-06</v>
+        <v>0.0006319646490737796</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.02079393400345e-05</v>
+        <v>4.376210563350469e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001260799181181937</v>
+        <v>0.0002751495048869401</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.880336640169844e-05</v>
+        <v>7.939474744489416e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.557280433597043e-05</v>
+        <v>5.308965046424419e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0001179063983727247</v>
+        <v>0.000346713699400425</v>
       </c>
       <c r="EH4" t="n">
-        <v>2.145928192476276e-05</v>
+        <v>4.437574534676969e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>8.785396858002059e-06</v>
+        <v>0.000252785044722259</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.0861771190539e-06</v>
+        <v>0.0003433784877415746</v>
       </c>
       <c r="EK4" t="n">
-        <v>2.532424514356535e-05</v>
+        <v>0.0003741236578207463</v>
       </c>
       <c r="EL4" t="n">
-        <v>7.402891242236365e-06</v>
+        <v>0.0003228120331186801</v>
       </c>
       <c r="EM4" t="n">
-        <v>5.788564885733649e-05</v>
+        <v>0.0003249176079407334</v>
       </c>
       <c r="EN4" t="n">
-        <v>2.61081222561188e-05</v>
+        <v>6.661532097496092e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>6.502783799078315e-05</v>
+        <v>0.0003608527476899326</v>
       </c>
       <c r="EP4" t="n">
-        <v>9.331179171567783e-07</v>
+        <v>0.0007579320226795971</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.870151027105749e-05</v>
+        <v>0.0001487106346758083</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.702207297668792e-05</v>
+        <v>0.0005194633267819881</v>
       </c>
       <c r="ES4" t="n">
-        <v>2.236133877886459e-05</v>
+        <v>0.0004501616058405489</v>
       </c>
       <c r="ET4" t="n">
-        <v>7.1972310252022e-05</v>
+        <v>0.001988430507481098</v>
       </c>
       <c r="EU4" t="n">
-        <v>3.218106576241553e-05</v>
+        <v>0.0001432480639778078</v>
       </c>
       <c r="EV4" t="n">
-        <v>5.02585680806078e-05</v>
+        <v>0.0001946559350471944</v>
       </c>
       <c r="EW4" t="n">
-        <v>6.341739936033264e-05</v>
+        <v>9.916462295223027e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.056875589711126e-05</v>
+        <v>0.0002712067507673055</v>
       </c>
       <c r="EY4" t="n">
-        <v>6.932164251338691e-05</v>
+        <v>0.0008338360348716378</v>
       </c>
       <c r="EZ4" t="n">
-        <v>5.723025242332369e-05</v>
+        <v>4.873488433077e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.799208803276997e-05</v>
+        <v>0.0005086282035335898</v>
       </c>
       <c r="FB4" t="n">
-        <v>3.844898310489953e-05</v>
+        <v>2.698729076655582e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.43083188959281e-05</v>
+        <v>0.0005391970044001937</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.202191576041514e-06</v>
+        <v>0.0002427248255116865</v>
       </c>
       <c r="FE4" t="n">
-        <v>5.727987081627361e-05</v>
+        <v>9.788115858100355e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>5.348786726244725e-05</v>
+        <v>0.0002639734593685716</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.729625728330575e-05</v>
+        <v>0.0001936866901814938</v>
       </c>
       <c r="FH4" t="n">
-        <v>9.423286428500433e-06</v>
+        <v>0.0003356857341714203</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.871437729685567e-05</v>
+        <v>6.526662036776543e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.322187381447293e-05</v>
+        <v>0.000881187675986439</v>
       </c>
       <c r="FK4" t="n">
-        <v>6.464638136094436e-05</v>
+        <v>7.547351560788229e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.95364100363804e-05</v>
+        <v>0.0002337482874281704</v>
       </c>
       <c r="FM4" t="n">
-        <v>4.005487789981999e-05</v>
+        <v>0.0002826774725690484</v>
       </c>
       <c r="FN4" t="n">
-        <v>2.216401480836794e-05</v>
+        <v>0.0001512466988060623</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.817283868556842e-05</v>
+        <v>0.0006786618614569306</v>
       </c>
       <c r="FP4" t="n">
-        <v>4.866594099439681e-05</v>
+        <v>8.155501564033329e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>6.877591658849269e-05</v>
+        <v>0.0003084700147155672</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.244829738629051e-05</v>
+        <v>5.525507003767416e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>5.159477223060094e-05</v>
+        <v>0.0009270606678910553</v>
       </c>
       <c r="FT4" t="n">
-        <v>4.910243296762928e-05</v>
+        <v>0.001601481577381492</v>
       </c>
       <c r="FU4" t="n">
-        <v>6.718984514009207e-05</v>
+        <v>4.50640800409019e-06</v>
       </c>
       <c r="FV4" t="n">
-        <v>6.176618626341224e-05</v>
+        <v>0.0002493669744580984</v>
       </c>
       <c r="FW4" t="n">
-        <v>6.694158946629614e-05</v>
+        <v>0.0003380689886398613</v>
       </c>
       <c r="FX4" t="n">
-        <v>2.208151636295952e-05</v>
+        <v>0.0003749665629584342</v>
       </c>
       <c r="FY4" t="n">
-        <v>6.75954797770828e-05</v>
+        <v>0.0005188843351788819</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0001020646377583034</v>
+        <v>0.0005121005815453827</v>
       </c>
       <c r="GA4" t="n">
-        <v>5.591940498561598e-05</v>
+        <v>0.0001284245809074491</v>
       </c>
       <c r="GB4" t="n">
-        <v>7.610888860654086e-05</v>
+        <v>0.0001870603009592742</v>
       </c>
       <c r="GC4" t="n">
-        <v>2.064094041998032e-05</v>
+        <v>0.000850675452966243</v>
       </c>
       <c r="GD4" t="n">
-        <v>8.967785106506199e-05</v>
+        <v>0.0007417001179419458</v>
       </c>
       <c r="GE4" t="n">
-        <v>8.07297183200717e-05</v>
+        <v>0.001117191510275006</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001065089236362837</v>
+        <v>3.855382965411991e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>2.466352816554718e-05</v>
+        <v>0.0002400521334493533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001867837272584438</v>
+        <v>0.0004430944682098925</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003681592410430312</v>
+        <v>0.004046596586704254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002213194267824292</v>
+        <v>0.000800918263848871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00649044755846262</v>
+        <v>0.001823783153668046</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00132733432110399</v>
+        <v>0.005211768671870232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006360967527143657</v>
+        <v>0.001847479143179953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003016011090949178</v>
+        <v>0.000290794123429805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003281957237049937</v>
+        <v>0.001272050896659493</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01001566275954247</v>
+        <v>0.0005044982535764575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000842183013446629</v>
+        <v>0.0009856271790340543</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0008018558146432042</v>
+        <v>0.003311062464490533</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005746506620198488</v>
+        <v>0.0005912440828979015</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005837054923176765</v>
+        <v>0.001366017153486609</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0008299167384393513</v>
+        <v>0.00491370540112257</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0008295443840324879</v>
+        <v>0.002366699278354645</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003516178345307708</v>
+        <v>0.000181489740498364</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002086519496515393</v>
+        <v>0.0002460792602505535</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01142526417970657</v>
+        <v>0.0005628337385132909</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001233758870512247</v>
+        <v>0.0002450411266181618</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0002500155242159963</v>
+        <v>0.001223148545250297</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001332696177996695</v>
+        <v>0.0003731781616806984</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001212507719174027</v>
+        <v>9.798539394978434e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002465146128088236</v>
+        <v>0.0001581549295224249</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001445832196623087</v>
+        <v>0.001017941394820809</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003202722640708089</v>
+        <v>0.0001041020732372999</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0002571093500591815</v>
+        <v>0.0001156056532636285</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001700094435364008</v>
+        <v>0.0003376250679139048</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0008114812662824988</v>
+        <v>0.0001772818504832685</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.004623264539986849</v>
+        <v>0.0006572867278009653</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002152799163013697</v>
+        <v>0.0009189019328914583</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001857824623584747</v>
+        <v>0.0004323554167058319</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.001258770818822086</v>
+        <v>0.0005760678905062377</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.932505256263539e-05</v>
+        <v>0.000831416982691735</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.003388444427400827</v>
+        <v>0.001111712190322578</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0002959830453619361</v>
+        <v>0.0006333169294521213</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.002339696744456887</v>
+        <v>5.179567961022258e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0004918731283396482</v>
+        <v>0.0001214488074765541</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001519231125712395</v>
+        <v>0.001497900811955333</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001147614908404648</v>
+        <v>0.0004745784972328693</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0003420319408178329</v>
+        <v>9.57028241828084e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.393372415099293e-05</v>
+        <v>0.000168085825862363</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.006105217151343822</v>
+        <v>0.0004423662612680346</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.302293432876468e-05</v>
+        <v>0.0006018565618433058</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0023769352119416</v>
+        <v>0.0002472412306815386</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0001790758105926216</v>
+        <v>0.0001115726045100018</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001893799751996994</v>
+        <v>0.0008169063366949558</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001271691755391657</v>
+        <v>0.003088835859671235</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.005746773909777403</v>
+        <v>0.0003495969576761127</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0001115950290113688</v>
+        <v>0.0005113340448588133</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0002197821740992367</v>
+        <v>0.001401781686581671</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.006809661630541086</v>
+        <v>0.0008041189284995198</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001356915337964892</v>
+        <v>0.001469797920435667</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0008455577772110701</v>
+        <v>4.798924783244729e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.004118854179978371</v>
+        <v>0.001056058797985315</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001651259255595505</v>
+        <v>0.0005334689049050212</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0008992626098915935</v>
+        <v>0.000639452482573688</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001796258613467216</v>
+        <v>9.353813948109746e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001412585377693176</v>
+        <v>0.0007877579773776233</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.003712834790349007</v>
+        <v>0.003379891160875559</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002917971694841981</v>
+        <v>0.0003393128572497517</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00221966952085495</v>
+        <v>0.001334433676674962</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.004136466421186924</v>
+        <v>5.46187802683562e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.003096635453402996</v>
+        <v>0.001106438226997852</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0007589606684632599</v>
+        <v>0.0008027349249459803</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0002081923594232649</v>
+        <v>0.0002385943080298603</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002626066561788321</v>
+        <v>0.0002531535865273327</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0006489171646535397</v>
+        <v>0.0004968531429767609</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0004086396656930447</v>
+        <v>0.0007148910081014037</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001726985792629421</v>
+        <v>0.0008522081188857555</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001813618466258049</v>
+        <v>0.0006721585523337126</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0006129331886768341</v>
+        <v>0.0004230657068546861</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001070522353984416</v>
+        <v>0.0001752104144543409</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0002939628320746124</v>
+        <v>0.0006827128818258643</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.001333776162937284</v>
+        <v>0.002221323782578111</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0003380203270353377</v>
+        <v>0.0008786103571765125</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001970256213098764</v>
+        <v>0.0006140008335933089</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0007622122648172081</v>
+        <v>0.0007632382330484688</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001956774387508631</v>
+        <v>0.0005485022556968033</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.002527389209717512</v>
+        <v>0.0007031222921796143</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0004647106979973614</v>
+        <v>8.047834853641689e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0036832878831774</v>
+        <v>0.000147849423228763</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0001514918694738299</v>
+        <v>2.584910544101149e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.002084473380818963</v>
+        <v>0.0006632370641455054</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0002894762146752328</v>
+        <v>0.0002229735837318003</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0003500952734611928</v>
+        <v>0.0003678590292111039</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0007114681648090482</v>
+        <v>0.000724118493963033</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0009080190793611109</v>
+        <v>0.000451636005891487</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0002759999770205468</v>
+        <v>0.0005317000905051827</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.00123932387214154</v>
+        <v>0.0001211593626067042</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001026906305924058</v>
+        <v>7.768734940327704e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.002565878676250577</v>
+        <v>0.0005681305774487555</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0007330045918934047</v>
+        <v>0.0002808749559335411</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0002581748412922025</v>
+        <v>0.0001527930871816352</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0006755436188541353</v>
+        <v>0.0003656634944491088</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001253051101230085</v>
+        <v>0.0003437893465161324</v>
       </c>
       <c r="CR5" t="n">
-        <v>7.493377779610455e-06</v>
+        <v>0.0005177333950996399</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0004149476590100676</v>
+        <v>0.001232137088663876</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001098565175198019</v>
+        <v>0.001302259275689721</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001053574960678816</v>
+        <v>0.0001025191231747158</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0003571681154426187</v>
+        <v>8.152732334565371e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.001693572150543332</v>
+        <v>0.0004025119415018708</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0001088194330804981</v>
+        <v>2.169588333345018e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0006347373710013926</v>
+        <v>0.0004462801443878561</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0006556325242854655</v>
+        <v>0.0006604504305869341</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00139478431083262</v>
+        <v>0.0006646740366704762</v>
       </c>
       <c r="DB5" t="n">
-        <v>5.267941378406249e-05</v>
+        <v>0.0003276541538070887</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0007812008843757212</v>
+        <v>6.688249413855374e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.00174719060305506</v>
+        <v>0.0002059467951767147</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003739165607839823</v>
+        <v>0.0005507191526703537</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.006922997068613768</v>
+        <v>0.001380123663693666</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.006917437538504601</v>
+        <v>0.0005368671263568103</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0002087891334667802</v>
+        <v>0.0007598183583468199</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.002350108930841088</v>
+        <v>0.0004321004962548614</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.004891159478574991</v>
+        <v>0.0004222571733407676</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.003397805616259575</v>
+        <v>0.00123209145385772</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.002127439714968204</v>
+        <v>9.89262480288744e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.000445298122940585</v>
+        <v>0.000460222247056663</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0006785151781514287</v>
+        <v>0.0002046568843070418</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0008453464834019542</v>
+        <v>0.000354056857759133</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002619251143187284</v>
+        <v>0.0005167094059288502</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.002043506829068065</v>
+        <v>0.001689843484200537</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.002406735438853502</v>
+        <v>0.0003065277705900371</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0001041428331518546</v>
+        <v>0.001799451652914286</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.001180149847641587</v>
+        <v>0.0003011820663232356</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.003126845927909017</v>
+        <v>1.324608820141293e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0004375726566649973</v>
+        <v>0.0002077203680528328</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001347220735624433</v>
+        <v>0.0001617276720935479</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0007557813078165054</v>
+        <v>8.986119064502418e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0004686367465183139</v>
+        <v>0.0002110848727170378</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0005204783519729972</v>
+        <v>0.00112536083906889</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0001464337401557714</v>
+        <v>0.0002977036056108773</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.00124922045506537</v>
+        <v>0.0008580941939726472</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0005127990734763443</v>
+        <v>0.0006367958267219365</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002415327820926905</v>
+        <v>0.0004479370545595884</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001051693572662771</v>
+        <v>1.196225639432669e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.001135889440774918</v>
+        <v>0.0004551315796561539</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.002992209978401661</v>
+        <v>0.0004736351547762752</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0005053891218267381</v>
+        <v>4.530109072220512e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001352005871012807</v>
+        <v>0.0004484511737246066</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0004411545814946294</v>
+        <v>0.0007169602904468775</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002217993373051286</v>
+        <v>6.100528844399378e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.001370592857711017</v>
+        <v>0.0006534199346788228</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001188440481200814</v>
+        <v>2.697253512451425e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.001868953579105437</v>
+        <v>0.0002999791468027979</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001169759780168533</v>
+        <v>9.948081424226984e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.001626918092370033</v>
+        <v>0.0004574351769406348</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0005623248871415854</v>
+        <v>0.0006759796524420381</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0007209473988041282</v>
+        <v>0.0008010498713701963</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002935054479166865</v>
+        <v>0.0005947073805145919</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003947946708649397</v>
+        <v>0.001216447330079973</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0006046389462426305</v>
+        <v>1.128445728681982e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0002227168588433415</v>
+        <v>0.000335685967002064</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0008882976835593581</v>
+        <v>0.000494394451379776</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0005282274796627462</v>
+        <v>3.043664037249982e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00160409661475569</v>
+        <v>0.0003850005741696805</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0002045397704932839</v>
+        <v>0.0001090010919142514</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.2182594218757e-05</v>
+        <v>0.0004930957220494747</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.000406222534365952</v>
+        <v>0.0005519239930436015</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.001375874504446983</v>
+        <v>0.0006363552529364824</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0001564852136652917</v>
+        <v>0.0005354016902856529</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0005817735800519586</v>
+        <v>0.0001089310098905116</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.002026902046054602</v>
+        <v>5.237840377958491e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0005490308976732194</v>
+        <v>0.0002909785835072398</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0008902403642423451</v>
+        <v>0.0008855900960043073</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001624821336008608</v>
+        <v>0.0003353942593093961</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002942330902442336</v>
+        <v>0.000891634845174849</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001633763662539423</v>
+        <v>2.249552926514298e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.002389212138950825</v>
+        <v>0.0004293860401958227</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0003470461233519018</v>
+        <v>0.0006181845674291253</v>
       </c>
       <c r="FN5" t="n">
-        <v>9.473398677073419e-05</v>
+        <v>0.0001574571360833943</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0007007255917415023</v>
+        <v>0.0003068822552450001</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0009559582686051726</v>
+        <v>9.732347098179162e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0006174521404318511</v>
+        <v>0.001126060495153069</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0004069644492119551</v>
+        <v>0.0003890372754540294</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001673787133768201</v>
+        <v>0.001353885047137737</v>
       </c>
       <c r="FT5" t="n">
-        <v>4.503905802266672e-05</v>
+        <v>0.000176788424141705</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.002056232187896967</v>
+        <v>0.0006526487413793802</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.002703992649912834</v>
+        <v>0.00114387075882405</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0001695021201157942</v>
+        <v>0.0004781429597642273</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0005965601303614676</v>
+        <v>0.0005107331671752036</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.001355081447400153</v>
+        <v>0.0003333539061713964</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001745797577314079</v>
+        <v>0.0003029440995305777</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001790900598280132</v>
+        <v>0.001504768617451191</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.001429961295798421</v>
+        <v>0.0003061565803363919</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0002405513077974319</v>
+        <v>0.0001102539099520072</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001718191080726683</v>
+        <v>0.0006223322125151753</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0008770142449066043</v>
+        <v>0.000267716299276799</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002511684782803059</v>
+        <v>0.0005287525709718466</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0006985379732213914</v>
+        <v>0.0005889259045943618</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001079066074453294</v>
+        <v>0.02965192124247551</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0002096402458846569</v>
+        <v>0.2796301245689392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002463296288624406</v>
+        <v>0.01181771419942379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00141225359402597</v>
+        <v>0.1380021870136261</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007974620093591511</v>
+        <v>0.03132452815771103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002135104296030477</v>
+        <v>0.05562609061598778</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005697585875168443</v>
+        <v>0.02111396566033363</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007628602907061577</v>
+        <v>0.03952661156654358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002106987871229649</v>
+        <v>0.006146597675979137</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004644273140002042</v>
+        <v>0.04818164557218552</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004410443070810288</v>
+        <v>0.1890419870615005</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002691779751330614</v>
+        <v>0.01435172744095325</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006969396490603685</v>
+        <v>0.1153348833322525</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0001353283878415823</v>
+        <v>0.06124077364802361</v>
       </c>
       <c r="O7" t="n">
-        <v>3.079748421441764e-05</v>
+        <v>0.07876907289028168</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0009400176932103932</v>
+        <v>0.0196281336247921</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001381415990181267</v>
+        <v>0.009948364458978176</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002563798800110817</v>
+        <v>0.0125527661293745</v>
       </c>
       <c r="S7" t="n">
-        <v>4.372403054730967e-05</v>
+        <v>0.01065842062234879</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0009725323179736733</v>
+        <v>0.03842803835868835</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001910047139972448</v>
+        <v>0.009437172673642635</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0004798122681677341</v>
+        <v>0.04146381095051765</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005269217654131353</v>
+        <v>0.02868921868503094</v>
       </c>
       <c r="X7" t="n">
-        <v>9.808919276110828e-05</v>
+        <v>0.0196227990090847</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.974331725155935e-05</v>
+        <v>0.03160898387432098</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0005163138266652822</v>
+        <v>0.03522514551877975</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0005484030116349459</v>
+        <v>0.02897336520254612</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002463249256834388</v>
+        <v>0.005211172625422478</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.287260425277054e-05</v>
+        <v>0.03002002090215683</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001078617133316584</v>
+        <v>0.002777946647256613</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0004553848993964493</v>
+        <v>0.01452160812914371</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0002138931740773842</v>
+        <v>0.006314744241535664</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0008548264158889651</v>
+        <v>0.0190393440425396</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.000180076080141589</v>
+        <v>0.009479224681854248</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0006281568203121424</v>
+        <v>0.005831102374941111</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0009570203255861998</v>
+        <v>0.01831695809960365</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0002149136707885191</v>
+        <v>0.02750327438116074</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0005779574858024716</v>
+        <v>0.03267889842391014</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.000113022411824204</v>
+        <v>0.003882485907524824</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0002583695168141276</v>
+        <v>0.01722580567002296</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0003540426259860396</v>
+        <v>0.02108271606266499</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0007141001406125724</v>
+        <v>0.03394882008433342</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.635260408278555e-05</v>
+        <v>0.01205134019255638</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001576662762090564</v>
+        <v>0.006320668384432793</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.866191375185736e-05</v>
+        <v>0.01543444860726595</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0004939495702274144</v>
+        <v>0.01331359334290028</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0005639327573589981</v>
+        <v>0.2001585960388184</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001910018618218601</v>
+        <v>0.003451487282291055</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0008341060602106154</v>
+        <v>0.0288989245891571</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.559529093559831e-05</v>
+        <v>0.0309289675205946</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001265872968360782</v>
+        <v>0.006541717331856489</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.192397707607597e-05</v>
+        <v>0.002796843647956848</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0004024305671919137</v>
+        <v>0.01388660073280334</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0007626041187904775</v>
+        <v>0.02517654374241829</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.865043542347848e-05</v>
+        <v>2.606958150863647e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0002663427731022239</v>
+        <v>0.0373530201613903</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0006198235205374658</v>
+        <v>0.03235340118408203</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0002384445688221604</v>
+        <v>0.005748536437749863</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0001077633642125875</v>
+        <v>0.07182114571332932</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0006593068828806281</v>
+        <v>0.02383254654705524</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0004160346579737961</v>
+        <v>0.0301322266459465</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.850140637950972e-05</v>
+        <v>0.0219181664288044</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0001695644168648869</v>
+        <v>0.01053600199520588</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0001168642484117299</v>
+        <v>0.04110235720872879</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.857210347428918e-05</v>
+        <v>0.04292205721139908</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0004947212291881442</v>
+        <v>0.00887109711766243</v>
       </c>
       <c r="BO7" t="n">
-        <v>8.834483014652506e-05</v>
+        <v>0.02432292699813843</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0002012996264966205</v>
+        <v>0.0260762944817543</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.8517944883788e-05</v>
+        <v>0.0144073124974966</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0003908727085217834</v>
+        <v>0.005056846421211958</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0009659212664701045</v>
+        <v>0.006382876075804234</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0006366890156641603</v>
+        <v>0.02240821532905102</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.000340645230608061</v>
+        <v>0.01457225158810616</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0001657981483731419</v>
+        <v>0.1092411577701569</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0007594118942506611</v>
+        <v>0.01247992552816868</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0004769922816194594</v>
+        <v>0.025228226557374</v>
       </c>
       <c r="BY7" t="n">
-        <v>7.719270797679201e-05</v>
+        <v>0.002885629422962666</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.107631214836147e-05</v>
+        <v>0.04130132496356964</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0003124253998976201</v>
+        <v>0.01691419258713722</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0001495310716563836</v>
+        <v>0.01009534019976854</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001027645193971694</v>
+        <v>0.03057858161628246</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0002882622648030519</v>
+        <v>0.0175983440130949</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0003635514294728637</v>
+        <v>0.04309675842523575</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0004736893752124161</v>
+        <v>0.01720555126667023</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0002093720540869981</v>
+        <v>0.01310017518699169</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0001395366562064737</v>
+        <v>0.01063610799610615</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.00024072801170405</v>
+        <v>0.01519928965717554</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5.827120185131207e-05</v>
+        <v>0.009104195982217789</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0002210893726442009</v>
+        <v>0.007431811653077602</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0003189582494087517</v>
+        <v>0.01627289317548275</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.000288044975604862</v>
+        <v>0.03200317174196243</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0007884777151048183</v>
+        <v>0.00994779821485281</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0004070762079209089</v>
+        <v>0.0177827961742878</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0002129916247213259</v>
+        <v>0.06085002794861794</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0003760973922908306</v>
+        <v>0.04363780468702316</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0003902364405803382</v>
+        <v>0.03068024106323719</v>
       </c>
       <c r="CS7" t="n">
-        <v>7.254641968756914e-05</v>
+        <v>0.03122838586568832</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0002884764689952135</v>
+        <v>0.0363064780831337</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0006572665879502892</v>
+        <v>0.01448883954435587</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0003070821694564074</v>
+        <v>0.01600195094943047</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0002485480508767068</v>
+        <v>0.03654805943369865</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0003639849310275167</v>
+        <v>0.01624637097120285</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.000218174813198857</v>
+        <v>0.02715828269720078</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0003712099569384009</v>
+        <v>0.0125964405015111</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0002039209939539433</v>
+        <v>0.0203779861330986</v>
       </c>
       <c r="DB7" t="n">
-        <v>8.52757366374135e-05</v>
+        <v>0.01167776994407177</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0002269143733428791</v>
+        <v>0.01280402392148972</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.000343605934176594</v>
+        <v>0.01028482150286436</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.000504352618008852</v>
+        <v>0.0200421679764986</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.000748532242141664</v>
+        <v>0.02261208929121494</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0007183818961493671</v>
+        <v>0.007741263601928949</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.000784120406024158</v>
+        <v>0.05523459985852242</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0006046307389624417</v>
+        <v>0.03443797677755356</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0008188772480934858</v>
+        <v>0.01954862102866173</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0005782871157862246</v>
+        <v>0.02396809868514538</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.684452945482917e-05</v>
+        <v>0.01743764244019985</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0004372707335278392</v>
+        <v>0.001923789153806865</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0002106102765537798</v>
+        <v>0.02554923482239246</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0002475176879670471</v>
+        <v>0.0175214484333992</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0005203732289373875</v>
+        <v>0.0194036141037941</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0002138071431545541</v>
+        <v>0.0003169002011418343</v>
       </c>
       <c r="DR7" t="n">
-        <v>7.201713742688298e-05</v>
+        <v>0.01403148379176855</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0002880894171539694</v>
+        <v>0.03733140975236893</v>
       </c>
       <c r="DT7" t="n">
-        <v>9.94981310213916e-05</v>
+        <v>0.003872786182910204</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.000163319316925481</v>
+        <v>0.01046307012438774</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0005748141556978226</v>
+        <v>0.02772538736462593</v>
       </c>
       <c r="DW7" t="n">
-        <v>9.730044985190034e-05</v>
+        <v>0.01477988995611668</v>
       </c>
       <c r="DX7" t="n">
-        <v>7.740156434010714e-05</v>
+        <v>0.005609262734651566</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0002133488887920976</v>
+        <v>0.04193592071533203</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0001860997872427106</v>
+        <v>0.006430414505302906</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0003407378972042352</v>
+        <v>0.0326077826321125</v>
       </c>
       <c r="EB7" t="n">
-        <v>7.742694288026541e-05</v>
+        <v>0.00607738085091114</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0001500829093856737</v>
+        <v>0.002747897058725357</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0005927538149990141</v>
+        <v>0.01023751124739647</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0001387122756568715</v>
+        <v>0.007491324096918106</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0004069919232279062</v>
+        <v>0.006020964123308659</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0005078145186416805</v>
+        <v>0.01724736019968987</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.000281675806036219</v>
+        <v>0.003786101937294006</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.171018422814086e-05</v>
+        <v>0.006711291614919901</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002275552833452821</v>
+        <v>0.004501397721469402</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0001479982311138883</v>
+        <v>0.01175273396074772</v>
       </c>
       <c r="EL7" t="n">
-        <v>4.844614886678755e-05</v>
+        <v>0.01007944345474243</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0003588651597965509</v>
+        <v>0.003111171303316951</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0001949095021700487</v>
+        <v>0.004182353615760803</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0005117938853800297</v>
+        <v>0.01073329336941242</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.674252315657213e-05</v>
+        <v>0.02612845972180367</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0003395755484234542</v>
+        <v>1.923367381095886e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0004914945457130671</v>
+        <v>0.02470270171761513</v>
       </c>
       <c r="ES7" t="n">
-        <v>6.380773993441835e-05</v>
+        <v>0.03006988391280174</v>
       </c>
       <c r="ET7" t="n">
-        <v>7.169216405600309e-05</v>
+        <v>0.07647784799337387</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.000337609148118645</v>
+        <v>0.02276900969445705</v>
       </c>
       <c r="EV7" t="n">
-        <v>6.726269202772528e-05</v>
+        <v>0.03661127015948296</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0006913500255905092</v>
+        <v>0.009920995682477951</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0001951051235664636</v>
+        <v>0.01284582726657391</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0002924811560660601</v>
+        <v>0.03466379269957542</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0004178716335445642</v>
+        <v>0.006987895350903273</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0001767871144693345</v>
+        <v>0.02021189592778683</v>
       </c>
       <c r="FB7" t="n">
-        <v>7.651064515812322e-05</v>
+        <v>0.009909754619002342</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001532846072223037</v>
+        <v>0.01898602955043316</v>
       </c>
       <c r="FD7" t="n">
-        <v>9.374010551255196e-05</v>
+        <v>0.01535413507372141</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0003081201284658164</v>
+        <v>0.007146644871681929</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0005136067629791796</v>
+        <v>0.01575145870447159</v>
       </c>
       <c r="FG7" t="n">
-        <v>6.967088847886771e-05</v>
+        <v>0.00809889379888773</v>
       </c>
       <c r="FH7" t="n">
-        <v>9.17907091206871e-05</v>
+        <v>0.02476220577955246</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0003411206707824022</v>
+        <v>0.01575331948697567</v>
       </c>
       <c r="FJ7" t="n">
-        <v>4.334576078690588e-05</v>
+        <v>0.03214205428957939</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0002748280530795455</v>
+        <v>0.004697933327406645</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0003378605470061302</v>
+        <v>0.003053451422601938</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.000256296043517068</v>
+        <v>0.008546260185539722</v>
       </c>
       <c r="FN7" t="n">
-        <v>5.892568515264429e-05</v>
+        <v>0.01476478856056929</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0004263041191734374</v>
+        <v>0.02506338059902191</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0001620319235371426</v>
+        <v>0.01478239241987467</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0005596728879027069</v>
+        <v>0.01109595317393541</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0003440493019297719</v>
+        <v>0.001339440350420773</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.000313885131618008</v>
+        <v>0.01989839226007462</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0003645353426691145</v>
+        <v>0.04639426246285439</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0003400628920644522</v>
+        <v>0.01874558068811893</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0002679202007129788</v>
+        <v>0.01067016087472439</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.775471173459664e-05</v>
+        <v>0.01277755480259657</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0003528947418089956</v>
+        <v>0.008286359719932079</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0004843600036110729</v>
+        <v>0.03620614483952522</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0004470744170248508</v>
+        <v>0.01184570509940386</v>
       </c>
       <c r="GA7" t="n">
-        <v>6.398512050509453e-05</v>
+        <v>0.01866648346185684</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.000771446037106216</v>
+        <v>0.00514733511954546</v>
       </c>
       <c r="GC7" t="n">
-        <v>9.926228813128546e-05</v>
+        <v>0.04180709272623062</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0005402174429036677</v>
+        <v>0.02739789336919785</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0004588346928358078</v>
+        <v>0.0855780765414238</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0007379341986961663</v>
+        <v>0.01076837908476591</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.431416421837639e-05</v>
+        <v>0.01977668888866901</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009663701988756657</v>
+        <v>0.001222542603500187</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03873477131128311</v>
+        <v>0.003434331621974707</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007497240789234638</v>
+        <v>0.001579540898092091</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01987650617957115</v>
+        <v>0.001854207832366228</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04240711033344269</v>
+        <v>0.009258848614990711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007520194165408611</v>
+        <v>0.02298036962747574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02040722966194153</v>
+        <v>0.002398148644715548</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005620771553367376</v>
+        <v>0.004518329631537199</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04051906615495682</v>
+        <v>0.009983333759009838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007299921475350857</v>
+        <v>0.002211456187069416</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03718839958310127</v>
+        <v>0.00225822115316987</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01429052837193012</v>
+        <v>0.005212149117141962</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01868954114615917</v>
+        <v>0.003243703860789537</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04877913370728493</v>
+        <v>0.003120163688436151</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002297806553542614</v>
+        <v>0.01921212114393711</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03324807807803154</v>
+        <v>0.004322497174143791</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01110296044498682</v>
+        <v>0.009190855547785759</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03324276953935623</v>
+        <v>0.006314297672361135</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02137023210525513</v>
+        <v>0.002084495732560754</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0009963262127712369</v>
+        <v>0.000376743875676766</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0004084872780367732</v>
+        <v>0.0003121604968328029</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0008601436857134104</v>
+        <v>0.005012697540223598</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001749144168570638</v>
+        <v>0.005266884807497263</v>
       </c>
       <c r="X9" t="n">
-        <v>0.009516362100839615</v>
+        <v>0.001220784266479313</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0106603903695941</v>
+        <v>0.0002171406522393227</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01246481202542782</v>
+        <v>0.0006678877980448306</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0008294237777590752</v>
+        <v>0.00230210367590189</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01227213256061077</v>
+        <v>0.0006090187816880643</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008854122832417488</v>
+        <v>0.003935227170586586</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0001325681805610657</v>
+        <v>0.006832437589764595</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01683929935097694</v>
+        <v>0.0009182840585708618</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0003762394189834595</v>
+        <v>0.0002258195891045034</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.005547570064663887</v>
+        <v>0.000922297709621489</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.01074739079922438</v>
+        <v>0.007178422063589096</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.008312067948281765</v>
+        <v>0.002787460573017597</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.002662437735125422</v>
+        <v>0.0002920593833550811</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.006474776193499565</v>
+        <v>0.002218947978690267</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.004966285079717636</v>
+        <v>0.0003649417776614428</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.002258298685774207</v>
+        <v>0.001119042048230767</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.004176499787718058</v>
+        <v>0.001206984394229949</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.004845010582357645</v>
+        <v>0.002380813006311655</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0170049574226141</v>
+        <v>0.002086285268887877</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.001981711713597178</v>
+        <v>0.001801906153559685</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0003574097063392401</v>
+        <v>0.001260600867681205</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.001457487815059721</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0006476147100329399</v>
+        <v>6.234424654394388e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.03160722181200981</v>
+        <v>0.006155123002827168</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.01485257875174284</v>
+        <v>0.0003756427904590964</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.003642660332843661</v>
+        <v>0.005333003588020802</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01967757567763329</v>
+        <v>0.01439454033970833</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.004166095983237028</v>
+        <v>0.008631505072116852</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0009059985168278217</v>
+        <v>0.001780567923560739</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.01822993531823158</v>
+        <v>0.001734070014208555</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.03095262497663498</v>
+        <v>0.006750458851456642</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.01547592412680387</v>
+        <v>0.00176434509921819</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.006812796927988529</v>
+        <v>0.00240204157307744</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.009405677206814289</v>
+        <v>0.004155708942562342</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.00850292295217514</v>
+        <v>0.0007512918673455715</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.03218841925263405</v>
+        <v>0.00194845162332058</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.002702775644138455</v>
+        <v>0.008334114216268063</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.00863778218626976</v>
+        <v>0.002120485529303551</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01293827872723341</v>
+        <v>0.0001643643481656909</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.007734986953437328</v>
+        <v>0.00107114645652473</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.002727106213569641</v>
+        <v>0.001331997802481055</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001114640734158456</v>
+        <v>0.008179060183465481</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.01020263880491257</v>
+        <v>0.00306284474208951</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.005598506890237331</v>
+        <v>0.0007578406948596239</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01515288092195988</v>
+        <v>0.002990091685205698</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.00240338989533484</v>
+        <v>0.0009721954120323062</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.00298239616677165</v>
+        <v>0.00306197558529675</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.005248227622359991</v>
+        <v>0.002823992865160108</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.001926786615513265</v>
+        <v>0.003494348376989365</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.002914645476266742</v>
+        <v>0.0005857343203388155</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.008616011589765549</v>
+        <v>0.003680621972307563</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.00174753658939153</v>
+        <v>0.001652105594985187</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.005599966272711754</v>
+        <v>0.002712541958317161</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.002587816910818219</v>
+        <v>0.006249121390283108</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.004328195936977863</v>
+        <v>0.005932591389864683</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01230702362954617</v>
+        <v>0.001505483873188496</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.01315275114029646</v>
+        <v>0.0007159113883972168</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.02247729897499084</v>
+        <v>7.966897101141512e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.0003813296789303422</v>
+        <v>0.0009299317025579512</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.01107791438698769</v>
+        <v>0.001579114585183561</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.005159494932740927</v>
+        <v>0.0007930154097266495</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.001808217260986567</v>
+        <v>0.0005165428156033158</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.00464155338704586</v>
+        <v>0.001373947830870748</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.001825567567721009</v>
+        <v>0.004384465515613556</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.003457343438640237</v>
+        <v>0.0007595813367515802</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.00410834513604641</v>
+        <v>0.001784298568964005</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.003576647257432342</v>
+        <v>0.0004259516717866063</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.00307177659124136</v>
+        <v>0.0006868701311759651</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.007100788876414299</v>
+        <v>0.00337357958778739</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.001123640686273575</v>
+        <v>0.001517335069365799</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.008476425893604755</v>
+        <v>0.002994039095938206</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.01544506940990686</v>
+        <v>0.00740730669349432</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.006525727454572916</v>
+        <v>0.001403312082402408</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.003171518910676241</v>
+        <v>0.001543040620163083</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.009507208131253719</v>
+        <v>0.002721026539802551</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.01243596896529198</v>
+        <v>0.002260929672047496</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.001083741663023829</v>
+        <v>0.000172406726051122</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.006749416701495647</v>
+        <v>0.001871247892268002</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.004332504700869322</v>
+        <v>0.001048141857609153</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.004295019898563623</v>
+        <v>0.0004918414051644504</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.002106697298586369</v>
+        <v>0.002200457267463207</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.00212734448723495</v>
+        <v>0.00410230690613389</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.004747394938021898</v>
+        <v>0.001000826247036457</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.004643339198082685</v>
+        <v>0.002608034992590547</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.005140386987477541</v>
+        <v>0.0009310069726780057</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.008285827934741974</v>
+        <v>6.248807767406106e-05</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.01642854139208794</v>
+        <v>8.06024982011877e-05</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.02264858037233353</v>
+        <v>0.002040587598457932</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.002847424475476146</v>
+        <v>0.00552046112716198</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.001620607683435082</v>
+        <v>0.005191465839743614</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.02093445137143135</v>
+        <v>0.00628377590328455</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01326412707567215</v>
+        <v>0.0009313199552707374</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.01016410067677498</v>
+        <v>0.003347514430060983</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.0008491795742884278</v>
+        <v>0.009031947702169418</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0004279827699065208</v>
+        <v>0.003108886536210775</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.003785376437008381</v>
+        <v>0.00170838856138289</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.00684479670599103</v>
+        <v>5.132853402756155e-05</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0002476796507835388</v>
+        <v>0.0007385241333395243</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.005853031761944294</v>
+        <v>0.002550570527091622</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.004264294169843197</v>
+        <v>0.000957280455622822</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.004265220370143652</v>
+        <v>0.001220596837811172</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.002692208159714937</v>
+        <v>0.002700908575206995</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.002220588037744164</v>
+        <v>3.155681770294905e-05</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.002228692173957825</v>
+        <v>0.0006217800546437502</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.001987139228731394</v>
+        <v>0.0007734349928796291</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.006971347145736217</v>
+        <v>0.002839806489646435</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.005268008448183537</v>
+        <v>0.002216425025835633</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0001705335453152657</v>
+        <v>0.0005714551080018282</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.005384347401559353</v>
+        <v>0.002285319846123457</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.001601955387741327</v>
+        <v>0.002061486709862947</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0004275876854080707</v>
+        <v>0.003441051580011845</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.003491231938824058</v>
+        <v>0.001702685607597232</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0002989515196532011</v>
+        <v>9.264366235584021e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.01381608191877604</v>
+        <v>0.002998437965288758</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0063279177993536</v>
+        <v>0.001024325494654477</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.009003534913063049</v>
+        <v>0.0007345298654399812</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.016799196600914</v>
+        <v>0.001001970493234694</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.001737907761707902</v>
+        <v>0.004754068795591593</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.009396452456712723</v>
+        <v>0.0001975100603885949</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.00490057747811079</v>
+        <v>0.001444098772481084</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.003078930545598269</v>
+        <v>0.00142889132257551</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0004711947403848171</v>
+        <v>0.0009321619290858507</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.002528978046029806</v>
+        <v>0.001547733205370605</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.003603340126574039</v>
+        <v>0.001761005725711584</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.006701788399368525</v>
+        <v>0.00141392822843045</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.009994243271648884</v>
+        <v>0.0007393489358946681</v>
       </c>
       <c r="ET9" t="n">
-        <v>8.306978270411491e-05</v>
+        <v>0.002084659412503242</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.00561156403273344</v>
+        <v>0.001035299617797136</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.007181203924119473</v>
+        <v>0.01055486965924501</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.002294684993103147</v>
+        <v>0.001680273562669754</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.0002560260472819209</v>
+        <v>0.0002723140059970319</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.007521676830947399</v>
+        <v>0.002118893433362246</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.005021762568503618</v>
+        <v>0.0004513111198320985</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.003692216472700238</v>
+        <v>0.0007036135066300631</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.006468396633863449</v>
+        <v>0.002103951293975115</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.001616571098566055</v>
+        <v>0.003575448179617524</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.004628313239663839</v>
+        <v>2.694374416023493e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.005087053403258324</v>
+        <v>0.002516040578484535</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.005196500569581985</v>
+        <v>0.0002384137769695371</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.001345523167401552</v>
+        <v>0.002067710738629103</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.003721527056768537</v>
+        <v>0.001704306458123028</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.003638967173174024</v>
+        <v>0.00129035918507725</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.006128219421952963</v>
+        <v>0.003705296665430069</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.00137390592135489</v>
+        <v>0.0001859494368545711</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0001146332360804081</v>
+        <v>0.002388410270214081</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.006860783323645592</v>
+        <v>0.0004664447624236345</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.002127382438629866</v>
+        <v>0.004575463011860847</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.003938678652048111</v>
+        <v>0.001741447602398694</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.005097934044897556</v>
+        <v>0.0004067593836225569</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.001064725453034043</v>
+        <v>0.004268188495188951</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.005058063194155693</v>
+        <v>7.282651495188475e-05</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.01219583861529827</v>
+        <v>0.003722867928445339</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.00373568432405591</v>
+        <v>0.002912767231464386</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.004189828876405954</v>
+        <v>0.004966877400875092</v>
       </c>
       <c r="FV9" t="n">
-        <v>8.644675835967064e-05</v>
+        <v>0.005505582317709923</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.00734485499560833</v>
+        <v>0.00077079888433218</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.001609646016731858</v>
+        <v>0.001956162974238396</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.005088265053927898</v>
+        <v>0.002264649840071797</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.00273381732404232</v>
+        <v>0.0002336418547201902</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.0003461040323600173</v>
+        <v>0.003939162474125624</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.02241109684109688</v>
+        <v>0.0009358953684568405</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.009322402998805046</v>
+        <v>0.00583349633961916</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.001056921086274087</v>
+        <v>0.0003824132727459073</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.001742200111038983</v>
+        <v>0.003754069097340107</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.005137321539223194</v>
+        <v>0.003955066204071045</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0140510369092226</v>
+        <v>0.002608340932056308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.571836325339973e-05</v>
+        <v>0.00326647493056953</v>
       </c>
       <c r="B10" t="n">
-        <v>9.507934009889141e-05</v>
+        <v>0.04848218709230423</v>
       </c>
       <c r="C10" t="n">
-        <v>1.649446858209558e-06</v>
+        <v>0.002187465783208609</v>
       </c>
       <c r="D10" t="n">
-        <v>4.639265534933656e-05</v>
+        <v>0.01790141686797142</v>
       </c>
       <c r="E10" t="n">
-        <v>6.539969035657123e-05</v>
+        <v>0.004668010864406824</v>
       </c>
       <c r="F10" t="n">
-        <v>5.25467612533248e-06</v>
+        <v>0.03632450103759766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001602475385880098</v>
+        <v>0.002597357844933867</v>
       </c>
       <c r="H10" t="n">
-        <v>4.131223613512702e-05</v>
+        <v>0.01701233349740505</v>
       </c>
       <c r="I10" t="n">
-        <v>9.716906060930341e-05</v>
+        <v>0.001692375750280917</v>
       </c>
       <c r="J10" t="n">
-        <v>3.304983692942187e-05</v>
+        <v>0.01064796093851328</v>
       </c>
       <c r="K10" t="n">
-        <v>8.961095591075718e-05</v>
+        <v>0.04202982783317566</v>
       </c>
       <c r="L10" t="n">
-        <v>4.784005432156846e-05</v>
+        <v>0.001617562840692699</v>
       </c>
       <c r="M10" t="n">
-        <v>4.427634848980233e-05</v>
+        <v>0.01969591155648232</v>
       </c>
       <c r="N10" t="n">
-        <v>9.046928607858717e-05</v>
+        <v>0.0001974058104678988</v>
       </c>
       <c r="O10" t="n">
-        <v>4.978792276233435e-06</v>
+        <v>0.03394367918372154</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001207899622386321</v>
+        <v>0.004825852811336517</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.263282582745887e-05</v>
+        <v>0.004890351556241512</v>
       </c>
       <c r="R10" t="n">
-        <v>9.963844786398113e-05</v>
+        <v>0.004124992061406374</v>
       </c>
       <c r="S10" t="n">
-        <v>2.688063614186831e-05</v>
+        <v>0.000497363624162972</v>
       </c>
       <c r="T10" t="n">
-        <v>3.739713065442629e-06</v>
+        <v>0.002616744954138994</v>
       </c>
       <c r="U10" t="n">
-        <v>3.710520468303002e-05</v>
+        <v>0.002275341656059027</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33434868985205e-05</v>
+        <v>0.004216319881379604</v>
       </c>
       <c r="W10" t="n">
-        <v>1.812611662899144e-05</v>
+        <v>0.006824586074799299</v>
       </c>
       <c r="X10" t="n">
-        <v>1.352222398054437e-06</v>
+        <v>0.006532473023980856</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.12847280636197e-05</v>
+        <v>0.003442678134888411</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.054783858009614e-05</v>
+        <v>0.00551244942471385</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.03013544503483e-05</v>
+        <v>0.00490192836150527</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.764944242197089e-05</v>
+        <v>0.001185087719932199</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.550102170876926e-06</v>
+        <v>0.003592978231608868</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.648414222989231e-06</v>
+        <v>0.001202821731567383</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.022570308530703e-05</v>
+        <v>0.003488541813567281</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.410116849205224e-06</v>
+        <v>0.0006879392312839627</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.422176294203382e-05</v>
+        <v>0.002729927422478795</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.382602386001963e-05</v>
+        <v>0.0007923586526885629</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.801345312444028e-06</v>
+        <v>0.002377745695412159</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.641871833475307e-05</v>
+        <v>0.001052958192303777</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.323587851715274e-06</v>
+        <v>0.00451175682246685</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.360624239372555e-05</v>
+        <v>0.005374717060476542</v>
       </c>
       <c r="AM10" t="n">
-        <v>4.828726559935603e-06</v>
+        <v>0.0006826194003224373</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.776074143184815e-05</v>
+        <v>0.003109892597422004</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.080069164861925e-07</v>
+        <v>0.00527254631742835</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.785817170864902e-06</v>
+        <v>0.008006338030099869</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.524859726487193e-05</v>
+        <v>0.002049709437415004</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.000388672575355e-06</v>
+        <v>0.003053969005122781</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.202910400228575e-05</v>
+        <v>0.00502926716580987</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.248303154483438e-05</v>
+        <v>0.004778654314577579</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.132126196054742e-05</v>
+        <v>0.03131197392940521</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.352534829697106e-05</v>
+        <v>0.004866488743573427</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.606371946167201e-05</v>
+        <v>0.0009973263368010521</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0001391859113937244</v>
+        <v>0.004126975778490305</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.748399103642441e-05</v>
+        <v>0.02068138867616653</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.629779555718414e-05</v>
+        <v>0.006527981255203485</v>
       </c>
       <c r="BA10" t="n">
-        <v>8.520875417161733e-05</v>
+        <v>0.00832858495414257</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.419611989054829e-05</v>
+        <v>0.0097507294267416</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.904052624013275e-06</v>
+        <v>0.004357059486210346</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.360183836775832e-05</v>
+        <v>0.00908393133431673</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.519510442449246e-05</v>
+        <v>0.008687102235853672</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.564420927024912e-05</v>
+        <v>0.005221866071224213</v>
       </c>
       <c r="BG10" t="n">
-        <v>5.118668923387304e-05</v>
+        <v>0.009419101290404797</v>
       </c>
       <c r="BH10" t="n">
-        <v>3.040338015125599e-06</v>
+        <v>0.01138282101601362</v>
       </c>
       <c r="BI10" t="n">
-        <v>6.820099952165037e-05</v>
+        <v>0.004825131502002478</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7.439841283485293e-05</v>
+        <v>0.004234411288052797</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.784663229249418e-05</v>
+        <v>0.002072033006697893</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.677572618064005e-05</v>
+        <v>0.001542588230222464</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.847233529086225e-05</v>
+        <v>0.007863626815378666</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.1508960344363e-05</v>
+        <v>0.001434010453522205</v>
       </c>
       <c r="BO10" t="n">
-        <v>6.185522943269461e-05</v>
+        <v>0.002976469229906797</v>
       </c>
       <c r="BP10" t="n">
-        <v>3.577473762561567e-05</v>
+        <v>0.0009895055554807186</v>
       </c>
       <c r="BQ10" t="n">
-        <v>6.980078069318552e-06</v>
+        <v>0.001379390014335513</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.102312671719119e-05</v>
+        <v>0.001809749519452453</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.571679422340821e-05</v>
+        <v>0.0003638268681243062</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.422122634015977e-06</v>
+        <v>0.00241646496579051</v>
       </c>
       <c r="BU10" t="n">
-        <v>8.052132034208626e-05</v>
+        <v>0.003140769433230162</v>
       </c>
       <c r="BV10" t="n">
-        <v>8.718378012417816e-06</v>
+        <v>0.01635713502764702</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.255347110098228e-05</v>
+        <v>0.004330795258283615</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.797794695652556e-05</v>
+        <v>0.002244230592623353</v>
       </c>
       <c r="BY10" t="n">
-        <v>6.997889431659132e-05</v>
+        <v>0.0002678670571185648</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.596082483956707e-06</v>
+        <v>0.01040007267147303</v>
       </c>
       <c r="CA10" t="n">
-        <v>3.538588498486206e-05</v>
+        <v>0.0004146815044805408</v>
       </c>
       <c r="CB10" t="n">
-        <v>8.868517397786491e-06</v>
+        <v>0.003803190542384982</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.785847416613251e-07</v>
+        <v>0.005282261874526739</v>
       </c>
       <c r="CD10" t="n">
-        <v>6.732921065122355e-06</v>
+        <v>0.0007206815062090755</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.194214175688103e-05</v>
+        <v>0.007109072525054216</v>
       </c>
       <c r="CF10" t="n">
-        <v>6.445728104154114e-06</v>
+        <v>0.003044365672394633</v>
       </c>
       <c r="CG10" t="n">
-        <v>6.524893979076296e-05</v>
+        <v>0.002860957058146596</v>
       </c>
       <c r="CH10" t="n">
-        <v>9.977652553061489e-06</v>
+        <v>0.0002972191723529249</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.298266852245433e-06</v>
+        <v>0.004606185480952263</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3.034982728422619e-05</v>
+        <v>0.003192631062120199</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.047986370394938e-05</v>
+        <v>0.00262359413318336</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.557934860509704e-06</v>
+        <v>0.003595386864617467</v>
       </c>
       <c r="CM10" t="n">
-        <v>6.916567508596927e-05</v>
+        <v>0.005911034066230059</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.626874109206256e-06</v>
+        <v>0.002527456730604172</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.803978921088856e-05</v>
+        <v>0.0009475368424318731</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.949904592242092e-05</v>
+        <v>0.006910126656293869</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5.81693348067347e-05</v>
+        <v>0.000536338600795716</v>
       </c>
       <c r="CR10" t="n">
-        <v>7.36997526473715e-06</v>
+        <v>0.001945273019373417</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.895506233675405e-05</v>
+        <v>0.007494259160012007</v>
       </c>
       <c r="CT10" t="n">
-        <v>8.197718125302345e-05</v>
+        <v>0.006062099244445562</v>
       </c>
       <c r="CU10" t="n">
-        <v>9.471425437368453e-05</v>
+        <v>0.0005042116390541196</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.567907020216808e-05</v>
+        <v>9.829527698457241e-06</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.201055031036958e-05</v>
+        <v>0.006398907396942377</v>
       </c>
       <c r="CX10" t="n">
-        <v>8.431910828221589e-06</v>
+        <v>0.003321805037558079</v>
       </c>
       <c r="CY10" t="n">
-        <v>5.776781472377479e-05</v>
+        <v>0.0043366439640522</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2.03386207431322e-05</v>
+        <v>0.001054828288033605</v>
       </c>
       <c r="DA10" t="n">
-        <v>3.322707016195636e-06</v>
+        <v>0.005604279227554798</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.019881478394382e-05</v>
+        <v>0.002512924140319228</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.852192508522421e-05</v>
+        <v>0.00444812560454011</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.433522811566945e-06</v>
+        <v>0.002850395627319813</v>
       </c>
       <c r="DE10" t="n">
-        <v>2.59061562246643e-05</v>
+        <v>0.000234341889154166</v>
       </c>
       <c r="DF10" t="n">
-        <v>6.7495035182219e-05</v>
+        <v>0.006037120707333088</v>
       </c>
       <c r="DG10" t="n">
-        <v>7.523241947637871e-06</v>
+        <v>0.002551864366978407</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0001219737096107565</v>
+        <v>0.01583707332611084</v>
       </c>
       <c r="DI10" t="n">
-        <v>5.933402644586749e-05</v>
+        <v>0.007540635298937559</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.859879507217556e-05</v>
+        <v>0.009876878000795841</v>
       </c>
       <c r="DK10" t="n">
-        <v>6.46246508040349e-06</v>
+        <v>0.005709083285182714</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.316280061786529e-06</v>
+        <v>0.00931661669164896</v>
       </c>
       <c r="DM10" t="n">
-        <v>4.166549479123205e-05</v>
+        <v>0.005952263250946999</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.724119622143917e-05</v>
+        <v>0.0007685098680667579</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.664770388742909e-05</v>
+        <v>0.003283271100372076</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.382196180406027e-05</v>
+        <v>0.0001713576493784785</v>
       </c>
       <c r="DQ10" t="n">
-        <v>4.965412517776713e-05</v>
+        <v>0.0001395517610944808</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.784981916192919e-05</v>
+        <v>0.0002575437829364091</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.547755528008565e-05</v>
+        <v>0.002996916184201837</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.35973636538256e-05</v>
+        <v>0.002023401902988553</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.368265606695786e-05</v>
+        <v>0.001300733187235892</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.521306694485247e-05</v>
+        <v>0.003532025031745434</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.618918683263473e-05</v>
+        <v>0.001191945746541023</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.521739927236922e-05</v>
+        <v>0.001933537889271975</v>
       </c>
       <c r="DY10" t="n">
-        <v>5.862711532245157e-06</v>
+        <v>0.00248065940104425</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.466239311615936e-05</v>
+        <v>0.002911754418164492</v>
       </c>
       <c r="EA10" t="n">
-        <v>4.387746594147757e-05</v>
+        <v>0.001063233357854187</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.934786268975586e-05</v>
+        <v>0.004491161555051804</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.641902417759411e-05</v>
+        <v>0.0004807454533874989</v>
       </c>
       <c r="ED10" t="n">
-        <v>8.807981430436485e-06</v>
+        <v>0.0004532112507149577</v>
       </c>
       <c r="EE10" t="n">
-        <v>5.001558383810334e-05</v>
+        <v>0.006098481826484203</v>
       </c>
       <c r="EF10" t="n">
-        <v>3.703080437844619e-05</v>
+        <v>0.001566520077176392</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.598136572691146e-06</v>
+        <v>0.005305588245391846</v>
       </c>
       <c r="EH10" t="n">
-        <v>6.167892479425063e-06</v>
+        <v>0.001721352455206215</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.282486068201251e-05</v>
+        <v>0.0004813678096979856</v>
       </c>
       <c r="EJ10" t="n">
-        <v>3.984038812632207e-06</v>
+        <v>0.002709752414375544</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.390049874316901e-05</v>
+        <v>0.0008336987812072039</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.428023097105324e-05</v>
+        <v>0.004160656593739986</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.884120764676481e-05</v>
+        <v>0.001820030738599598</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.994884875486605e-06</v>
+        <v>0.0004742569581139833</v>
       </c>
       <c r="EO10" t="n">
-        <v>4.435958180692978e-05</v>
+        <v>0.0004954946925863624</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.227515895152465e-05</v>
+        <v>0.003876011818647385</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.25003907669452e-06</v>
+        <v>0.004322228487581015</v>
       </c>
       <c r="ER10" t="n">
-        <v>2.047894486167934e-05</v>
+        <v>0.00261489232070744</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.511735460255295e-05</v>
+        <v>0.002895067911595106</v>
       </c>
       <c r="ET10" t="n">
-        <v>3.807752364082262e-05</v>
+        <v>0.0004171559703536332</v>
       </c>
       <c r="EU10" t="n">
-        <v>6.381292769219726e-05</v>
+        <v>0.004572216887027025</v>
       </c>
       <c r="EV10" t="n">
-        <v>5.432500620372593e-05</v>
+        <v>0.009230108931660652</v>
       </c>
       <c r="EW10" t="n">
-        <v>3.391489372006617e-05</v>
+        <v>0.001448959344998002</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.774768679752015e-05</v>
+        <v>4.593687481246889e-05</v>
       </c>
       <c r="EY10" t="n">
-        <v>6.362750809785211e-06</v>
+        <v>0.006196573376655579</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.36028575070668e-05</v>
+        <v>0.0022205023560673</v>
       </c>
       <c r="FA10" t="n">
-        <v>5.292624337016605e-05</v>
+        <v>0.002409565728157759</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.668255208642222e-05</v>
+        <v>0.001421943888999522</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.583886043794337e-06</v>
+        <v>0.004341259598731995</v>
       </c>
       <c r="FD10" t="n">
-        <v>2.351180046389345e-05</v>
+        <v>0.005046715028584003</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.624281503609382e-05</v>
+        <v>0.002721197903156281</v>
       </c>
       <c r="FF10" t="n">
-        <v>5.315799626259832e-06</v>
+        <v>0.004458659794181585</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.880431591416709e-05</v>
+        <v>0.002800673712044954</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.719188887567725e-05</v>
+        <v>0.003487054724246264</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.582427466928493e-05</v>
+        <v>0.001051086816005409</v>
       </c>
       <c r="FJ10" t="n">
-        <v>3.737080987775698e-05</v>
+        <v>0.009219763800501823</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.31060380681447e-06</v>
+        <v>0.00179797550663352</v>
       </c>
       <c r="FL10" t="n">
-        <v>4.483106386032887e-05</v>
+        <v>0.002803782466799021</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.183737160521559e-05</v>
+        <v>0.000234522856771946</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.214328585774638e-05</v>
+        <v>0.001572730951011181</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.19502101370017e-06</v>
+        <v>0.002656008116900921</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.219805173808709e-05</v>
+        <v>0.004005849361419678</v>
       </c>
       <c r="FQ10" t="n">
-        <v>8.032959158299491e-06</v>
+        <v>0.006193743553012609</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.586266989761498e-05</v>
+        <v>0.004750174470245838</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.311246448196471e-05</v>
+        <v>0.00476810010150075</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.162600892712362e-05</v>
+        <v>0.0008880685199983418</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.430920646176673e-05</v>
+        <v>0.002316673286259174</v>
       </c>
       <c r="FV10" t="n">
-        <v>3.160487176501192e-05</v>
+        <v>0.004454992711544037</v>
       </c>
       <c r="FW10" t="n">
-        <v>7.867405656725168e-06</v>
+        <v>0.00150630809366703</v>
       </c>
       <c r="FX10" t="n">
-        <v>5.176366357773077e-06</v>
+        <v>0.003835431998595595</v>
       </c>
       <c r="FY10" t="n">
-        <v>8.861254173098132e-06</v>
+        <v>0.006758212111890316</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.696332037681714e-05</v>
+        <v>0.001246098661795259</v>
       </c>
       <c r="GA10" t="n">
-        <v>3.337184898555279e-05</v>
+        <v>0.005774445831775665</v>
       </c>
       <c r="GB10" t="n">
-        <v>9.286006388720125e-05</v>
+        <v>0.001233784598298371</v>
       </c>
       <c r="GC10" t="n">
-        <v>3.753505006898195e-05</v>
+        <v>0.003722600173205137</v>
       </c>
       <c r="GD10" t="n">
-        <v>3.481096064206213e-05</v>
+        <v>0.003594804555177689</v>
       </c>
       <c r="GE10" t="n">
-        <v>9.811835298023652e-06</v>
+        <v>0.0154500063508749</v>
       </c>
       <c r="GF10" t="n">
-        <v>9.886737643682864e-06</v>
+        <v>0.001542559009976685</v>
       </c>
       <c r="GG10" t="n">
-        <v>2.684945866349153e-05</v>
+        <v>0.002568569267168641</v>
       </c>
     </row>
     <row r="11">
